--- a/responses.xlsx
+++ b/responses.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -433,65 +433,181 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>f</v>
+        <v>ram</v>
       </c>
       <c r="B2" t="str">
-        <v>f</v>
+        <v>ram</v>
       </c>
       <c r="C2" t="str">
-        <v>f</v>
+        <v>ram</v>
       </c>
       <c r="D2" t="str">
-        <v>f</v>
+        <v>ram</v>
       </c>
       <c r="E2" t="str">
-        <v>f</v>
+        <v>11</v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v>1111-11-11</v>
       </c>
       <c r="G2" t="str">
-        <v>f</v>
+        <v>ff</v>
       </c>
       <c r="H2" t="str">
-        <v>f</v>
+        <v>dd</v>
       </c>
       <c r="I2" t="str">
-        <v>verySatisfied</v>
+        <v>veryUnsatisfied</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>s</v>
+        <v>ram</v>
       </c>
       <c r="B3" t="str">
-        <v>s</v>
+        <v>ram</v>
       </c>
       <c r="C3" t="str">
-        <v>s</v>
+        <v>ram</v>
       </c>
       <c r="D3" t="str">
-        <v>s</v>
+        <v>ram</v>
       </c>
       <c r="E3" t="str">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F3" t="str">
         <v>1111-11-11</v>
       </c>
       <c r="G3" t="str">
-        <v>s</v>
+        <v>ff</v>
       </c>
       <c r="H3" t="str">
-        <v>s</v>
+        <v>dd</v>
       </c>
       <c r="I3" t="str">
-        <v>satisfied</v>
+        <v>veryUnsatisfied</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>taim</v>
+      </c>
+      <c r="B4" t="str">
+        <v>t</v>
+      </c>
+      <c r="C4" t="str">
+        <v>t</v>
+      </c>
+      <c r="D4" t="str">
+        <v>t</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0993802226</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2025-09-12</v>
+      </c>
+      <c r="G4" t="str">
+        <v>f</v>
+      </c>
+      <c r="H4" t="str">
+        <v>f</v>
+      </c>
+      <c r="I4" t="str">
+        <v>unsatisfied</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>taim2</v>
+      </c>
+      <c r="B5" t="str">
+        <v>t</v>
+      </c>
+      <c r="C5" t="str">
+        <v>t</v>
+      </c>
+      <c r="D5" t="str">
+        <v>t</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0993802226</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2025-12-12</v>
+      </c>
+      <c r="G5" t="str">
+        <v>f</v>
+      </c>
+      <c r="H5" t="str">
+        <v>f</v>
+      </c>
+      <c r="I5" t="str">
+        <v>unsatisfied</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>taim3</v>
+      </c>
+      <c r="B6" t="str">
+        <v>t</v>
+      </c>
+      <c r="C6" t="str">
+        <v>t</v>
+      </c>
+      <c r="D6" t="str">
+        <v>t</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0993802226</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2025-05-12</v>
+      </c>
+      <c r="G6" t="str">
+        <v>f</v>
+      </c>
+      <c r="H6" t="str">
+        <v>f</v>
+      </c>
+      <c r="I6" t="str">
+        <v>unsatisfied</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>taim4</v>
+      </c>
+      <c r="B7" t="str">
+        <v>t</v>
+      </c>
+      <c r="C7" t="str">
+        <v>t</v>
+      </c>
+      <c r="D7" t="str">
+        <v>t</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0993802226</v>
+      </c>
+      <c r="F7" t="str">
+        <v>2025-10-12</v>
+      </c>
+      <c r="G7" t="str">
+        <v>f</v>
+      </c>
+      <c r="H7" t="str">
+        <v>f</v>
+      </c>
+      <c r="I7" t="str">
+        <v>unsatisfied</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
   </ignoredErrors>
 </worksheet>
 </file>